--- a/assets/listado_pacientes.xlsx
+++ b/assets/listado_pacientes.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,12 +16,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -45,8 +53,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +434,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A6:D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -440,15 +450,10 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>APELLIDOS</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>MAP</t>
         </is>
@@ -460,15 +465,10 @@
           <t>pepita</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>manzano</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Dr Pedo</t>
         </is>
@@ -480,15 +480,10 @@
           <t>manolita</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>palomares</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="B3" s="1" t="n">
+        <v>21348</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Dr Culo</t>
         </is>
@@ -500,15 +495,10 @@
           <t>ricardito</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>monzon</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B4" s="1" t="n">
+        <v>44555</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Dr Caca</t>
         </is>
@@ -520,38 +510,56 @@
           <t>fulanito</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>menganito</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>76</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" s="1" t="n">
+        <v>44822</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Dr Pedo</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>adan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31/12/22</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Leoncio Bernal</t>
+    <row r="6">
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Manolo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14/05/48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pocholo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/04/85</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Natalia</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assets/listado_pacientes.xlsx
+++ b/assets/listado_pacientes.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,15 +503,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A151" sqref="A151:H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>NOMBRE</t>
@@ -459,102 +528,2239 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>pepita</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>45334</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dr Pedo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>manolita</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>21348</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dr Culo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ricardito</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44555</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Dr Caca</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>fulanito</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Dr Pedo</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Manolo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14/05/48</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Agustina Peña Cano</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>13275</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>JA Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Agustina Vicente Gabriel</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>46544</v>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Alicia Santos Hernández</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>27583</v>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Alfonsa Barrado Palomino</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>46467</v>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Alfonso Alberto Cabrera López</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>22240</v>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Ana Caridad Carrón Sánchez</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>12626</v>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Ana M.ª Sánchez Martin</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>22772</v>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Ana Monreal Navas</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>45499</v>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Ángel Paniagua Benito</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>16004</v>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Ángela Prieto Guillén</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>19419</v>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Ángela Miralles Vega</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>13122</v>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>Maria Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Ángela Sánchez Sánchez</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>12081</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>María Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Antonio Palomo Maseda</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Antonio Gaytan Clemente</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>12194</v>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>Natalia</t>
         </is>
       </c>
     </row>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>pocholo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12/04/85</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+    <row r="16" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Antonio Garcia-Matos Álvarez</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>15014</v>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>Natalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Antonia Ramos Martín</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>14930</v>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Avelina Pérez Garzón</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>12583</v>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>Natalia Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Baldomera Gómez Ramos</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>47082</v>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Carmen Cobos Fernández</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>12327</v>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Carmen Floriano Alfonso</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>13270</v>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Carmen Hernández Peris</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>21153</v>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>Maria Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Carmen Sánchez Sánchez</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>14062</v>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Celedonio López Rina</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>16499</v>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Concepción Hernández Muñoz</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>18858</v>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Concepción Calderón Navarro</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>12653</v>
+      </c>
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Consuelo Gómez Galeano</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Cipriano Santos García</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>14039</v>
+      </c>
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>MUFACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Crisantos García Merino</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>14214</v>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Daniel Gracia Miranda</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>10961</v>
+      </c>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Daniela López Rina</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>47159</v>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Damiana Fernández García</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>11907</v>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdión</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Desideria González Hernández</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>12096</v>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Elena González Palomares</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>10965</v>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>Juan A. Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Elia Candelada Peña</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>13393</v>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Eloy Ramos Guillen</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>11243</v>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Elvira González Castilla</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>47035</v>
+      </c>
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Emilia Cerro Flores</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>11181</v>
+      </c>
+      <c r="C38" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>Emilia Vecino Collazos</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>11219</v>
+      </c>
+      <c r="C39" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Emilia Sierra Alonso</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>47213</v>
+      </c>
+      <c r="C40" s="7" t="inlineStr">
+        <is>
+          <t>Natalia Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Emiliana Caldera Sáez</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>12002</v>
+      </c>
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Emiliano Cobos Fernández</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>11863</v>
+      </c>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>Emiliano González Pastor</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>46791</v>
+      </c>
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>Emilio Gil Gil</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>12668</v>
+      </c>
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Encarnación López Pérez</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>12860</v>
+      </c>
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>Encarnación Recio Tejeda</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>15508</v>
+      </c>
+      <c r="C46" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>Encarnación Lescura Aycart</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>44503</v>
+      </c>
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>J.A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>Epifanio Vecino Collazos</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>46543</v>
+      </c>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Esperanza López Álvarez</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>12526</v>
+      </c>
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>Eugenia Rama González</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>13861</v>
+      </c>
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>Juan A. Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>Eugenia González Ruano</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>17517</v>
+      </c>
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>Mª Ángeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Eulalia Ruano Paniagua</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Félix García Fraile</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>13460</v>
+      </c>
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>Fernando Hinojal Macias</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>23704</v>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>Juan A. Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Fernando Grande Peral</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>11013</v>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>Natalia Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>Fidela Dueñas Gutiérrez</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>13420</v>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>Florencia Rodríguez Clemente</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>45940</v>
+      </c>
+      <c r="C57" s="7" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>Florentino Galaviz Macias</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>17465</v>
+      </c>
+      <c r="C58" s="7" t="inlineStr">
+        <is>
+          <t>Natalia Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>Francisca Pámpano Chapinal</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>11907</v>
+      </c>
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>MUFACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>Francisca González Hernández</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>15085</v>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>Francisca Domínguez Fernández</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>17573</v>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>ADESLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>Francisca Malpartida Cipriano</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>20975</v>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Francisca Sánchez Redondo</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>16494</v>
+      </c>
+      <c r="C63" s="7" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>Francisca Vaz Gozalo</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>47247</v>
+      </c>
+      <c r="C64" s="7" t="inlineStr">
+        <is>
+          <t>ADESLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>Francisco Alonso Buezas</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>19413</v>
+      </c>
+      <c r="C65" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>Francisco Uzquiza Ojeda</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>20406</v>
+      </c>
+      <c r="C66" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>Gabriela Dominguez Leo</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>12066</v>
+      </c>
+      <c r="C67" s="7" t="inlineStr">
+        <is>
+          <t>Mª Ángeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>Germán de la Cruz García</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>13629</v>
+      </c>
+      <c r="C68" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Germán Pulido Rubio</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>13068</v>
+      </c>
+      <c r="C69" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>Guillermo Gómez Canelo</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>11591</v>
+      </c>
+      <c r="C70" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Higinio Salas Romero</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>13286</v>
+      </c>
+      <c r="C71" s="7" t="inlineStr">
+        <is>
+          <t>Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Hortensia Parra Macias</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>11203</v>
+      </c>
+      <c r="C72" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Hortensia la Calle Domínguez</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>16163</v>
+      </c>
+      <c r="C73" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Ignacio García García</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>14106</v>
+      </c>
+      <c r="C74" s="7" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Inés Cortes Arranz</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>12634</v>
+      </c>
+      <c r="C75" s="7" t="inlineStr">
+        <is>
+          <t>Maria Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Isabel Hernández García</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>11309</v>
+      </c>
+      <c r="C76" s="7" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Isabel Lucas Chaparro</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>11878</v>
+      </c>
+      <c r="C77" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Isidoro Pérez Sánchez</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>11186</v>
+      </c>
+      <c r="C78" s="7" t="inlineStr">
+        <is>
+          <t>Adeslas</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Jacinta Calzas Sánchez</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>11699</v>
+      </c>
+      <c r="C79" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Jacinto Redondo Hernández</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>11617</v>
+      </c>
+      <c r="C80" s="7" t="inlineStr">
+        <is>
+          <t>J.A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Jesús Hernández Arrojo</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>46976</v>
+      </c>
+      <c r="C81" s="7" t="inlineStr">
+        <is>
+          <t>Rosario González</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>Jerónimo Prieto Peña</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="n">
+        <v>11558</v>
+      </c>
+      <c r="C82" s="7" t="inlineStr">
+        <is>
+          <t>Rosario González</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Jose Luis Galindo López</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>14702</v>
+      </c>
+      <c r="C83" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Josefa Platero Alfonso</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="n">
+        <v>12928</v>
+      </c>
+      <c r="C84" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Juan José Rodríguez Mesa</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>17610</v>
+      </c>
+      <c r="C85" s="7" t="inlineStr">
+        <is>
+          <t>M. A. Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>Juana Diaz Torres</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>19305</v>
+      </c>
+      <c r="C86" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>Juana Giraldo Briones</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>45634</v>
+      </c>
+      <c r="C87" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>Juana Gómez Asensio</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>12650</v>
+      </c>
+      <c r="C88" s="7" t="inlineStr">
+        <is>
+          <t>J.A. Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>Julián Peña Montero</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>16856</v>
+      </c>
+      <c r="C89" s="7" t="inlineStr">
+        <is>
+          <t>J. A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cuesta Domínguez</t>
+        </is>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>12599</v>
+      </c>
+      <c r="C90" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Sánchez Ramiro</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="n">
+        <v>13033</v>
+      </c>
+      <c r="C91" s="7" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>Julia Rodríguez Fuentes</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>14631</v>
+      </c>
+      <c r="C92" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Justa Moreno Herrero</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>13090</v>
+      </c>
+      <c r="C93" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Justino Paredes Porras</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>14833</v>
+      </c>
+      <c r="C94" s="7" t="inlineStr">
+        <is>
+          <t>Rosario González</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>Leonor Ginés Blázquez</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>11377</v>
+      </c>
+      <c r="C95" s="7" t="inlineStr">
+        <is>
+          <t>Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>Leonor Mora Sánchez</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>11846</v>
+      </c>
+      <c r="C96" s="7" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>Luciana Hermoso Lorenzo</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>47122</v>
+      </c>
+      <c r="C97" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>Luis Rodríguez Jiménez</t>
+        </is>
+      </c>
+      <c r="B98" s="6" t="n">
+        <v>11556</v>
+      </c>
+      <c r="C98" s="7" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>Luis Romero Pico</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="n">
+        <v>11687</v>
+      </c>
+      <c r="C99" s="7" t="inlineStr">
+        <is>
+          <t>J.A. Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>Luis Sánchez Fernández</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>14008</v>
+      </c>
+      <c r="C100" s="7" t="inlineStr">
+        <is>
+          <t>Rosario González</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Luisa Robles Muñoz</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>12189</v>
+      </c>
+      <c r="C101" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>Luisa Caballero Herrero</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>12815</v>
+      </c>
+      <c r="C102" s="7" t="inlineStr">
+        <is>
+          <t>Maria Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>Luisa Santos Gil</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>11717</v>
+      </c>
+      <c r="C103" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>Luisa Vivas García</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>14914</v>
+      </c>
+      <c r="C104" s="7" t="inlineStr">
+        <is>
+          <t>MUFACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>Luzdivina Castañares Sánchez</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>12354</v>
+      </c>
+      <c r="C105" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>M.ª Angeles Lucio Conejero</t>
+        </is>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C106" s="7" t="inlineStr">
+        <is>
+          <t>J. A. Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>M. Agustina Martín Martín</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>12935</v>
+      </c>
+      <c r="C107" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>M.ª Antonia Hernández Santos</t>
+        </is>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>13949</v>
+      </c>
+      <c r="C108" s="7" t="inlineStr">
+        <is>
+          <t>ADESLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>M.ª Luisa Alonso Palacios</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>11197</v>
+      </c>
+      <c r="C109" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>M.ª Luisa Fernández Sanguino</t>
+        </is>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>46823</v>
+      </c>
+      <c r="C110" s="7" t="inlineStr">
+        <is>
+          <t>Mª Angeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>M.ª Carmen Valencia Castañares</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="n">
+        <v>13765</v>
+      </c>
+      <c r="C111" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>M.ª Teresa Beato Gómez</t>
+        </is>
+      </c>
+      <c r="B112" s="6" t="n">
+        <v>15438</v>
+      </c>
+      <c r="C112" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A113" s="5" t="inlineStr">
+        <is>
+          <t>M.ª Teresa Morales Morales</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C113" s="7" t="inlineStr">
+        <is>
+          <t>J. A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A114" s="5" t="inlineStr">
+        <is>
+          <t>Manuel Sánchez Grande</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="n">
+        <v>27818</v>
+      </c>
+      <c r="C114" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A115" s="5" t="inlineStr">
+        <is>
+          <t>Manuel Urrutia Avisrror</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="n">
+        <v>15454</v>
+      </c>
+      <c r="C115" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A116" s="5" t="inlineStr">
+        <is>
+          <t>Manuel Vicente García</t>
+        </is>
+      </c>
+      <c r="B116" s="6" t="n">
+        <v>12318</v>
+      </c>
+      <c r="C116" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>Manuela Casquet Gregorio</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="n">
+        <v>13035</v>
+      </c>
+      <c r="C117" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A118" s="5" t="inlineStr">
+        <is>
+          <t>Maria Isabel Fernández González</t>
+        </is>
+      </c>
+      <c r="B118" s="6" t="n">
+        <v>16202</v>
+      </c>
+      <c r="C118" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A119" s="5" t="inlineStr">
+        <is>
+          <t>Maria Eugenia Diaz Rodríguez</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="n">
+        <v>17311</v>
+      </c>
+      <c r="C119" s="7" t="inlineStr">
+        <is>
+          <t>Susana Verdion</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A120" s="5" t="inlineStr">
+        <is>
+          <t>Maria Pilar Blázquez Gándara</t>
+        </is>
+      </c>
+      <c r="B120" s="6" t="n">
+        <v>17539</v>
+      </c>
+      <c r="C120" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A121" s="5" t="inlineStr">
+        <is>
+          <t>María Burdallo Bermejo</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="n">
+        <v>11906</v>
+      </c>
+      <c r="C121" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A122" s="5" t="inlineStr">
+        <is>
+          <t>María León Sánchez</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="n">
+        <v>12276</v>
+      </c>
+      <c r="C122" s="7" t="inlineStr">
+        <is>
+          <t>Mª Ángeles Pérez</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A123" s="5" t="inlineStr">
+        <is>
+          <t>Maria Santiago Garrido</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="n">
+        <v>11965</v>
+      </c>
+      <c r="C123" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>Maria Serrano Fernández</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="n">
+        <v>11196</v>
+      </c>
+      <c r="C124" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A125" s="5" t="inlineStr">
+        <is>
+          <t>Miguel Ángel García Cortés</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="n">
+        <v>46683</v>
+      </c>
+      <c r="C125" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A126" s="5" t="inlineStr">
+        <is>
+          <t>Milagros Vivas Manzano</t>
+        </is>
+      </c>
+      <c r="B126" s="6" t="n">
+        <v>17281</v>
+      </c>
+      <c r="C126" s="7" t="inlineStr">
+        <is>
+          <t>María Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A127" s="5" t="inlineStr">
+        <is>
+          <t>Modesta Fabiana Lucas Gómez</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="n">
+        <v>47444</v>
+      </c>
+      <c r="C127" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A128" s="5" t="inlineStr">
+        <is>
+          <t>Narcisa García Giménez</t>
+        </is>
+      </c>
+      <c r="B128" s="6" t="n">
+        <v>11263</v>
+      </c>
+      <c r="C128" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A129" s="5" t="inlineStr">
+        <is>
+          <t>Nieves Pérez Prieto</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="n">
+        <v>46593</v>
+      </c>
+      <c r="C129" s="7" t="inlineStr">
+        <is>
+          <t>María Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>Orencio Gómez Cobos</t>
+        </is>
+      </c>
+      <c r="B130" s="6" t="n">
+        <v>46197</v>
+      </c>
+      <c r="C130" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A131" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Fernández García</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="n">
+        <v>12171</v>
+      </c>
+      <c r="C131" s="7" t="inlineStr">
+        <is>
+          <t>Cristina Plasencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A132" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Diaz Suero</t>
+        </is>
+      </c>
+      <c r="B132" s="6" t="n">
+        <v>16774</v>
+      </c>
+      <c r="C132" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A133" s="5" t="inlineStr">
+        <is>
+          <t>Petra Idelfonsa Abad Burgos</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="n">
+        <v>46040</v>
+      </c>
+      <c r="C133" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A134" s="5" t="inlineStr">
+        <is>
+          <t>Petra Hernández Sánchez</t>
+        </is>
+      </c>
+      <c r="B134" s="6" t="n">
+        <v>11637</v>
+      </c>
+      <c r="C134" s="7" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A135" s="5" t="inlineStr">
+        <is>
+          <t>Petra Marcos Sánchez</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="n">
+        <v>13191</v>
+      </c>
+      <c r="C135" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A136" s="5" t="inlineStr">
+        <is>
+          <t>Primitivo Prieto Fernández</t>
+        </is>
+      </c>
+      <c r="B136" s="6" t="n">
+        <v>12892</v>
+      </c>
+      <c r="C136" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Ramon Conejero Fabian</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="n">
+        <v>16680</v>
+      </c>
+      <c r="C137" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A138" s="5" t="inlineStr">
+        <is>
+          <t>Rosario Rosa Rubio</t>
+        </is>
+      </c>
+      <c r="B138" s="6" t="n">
+        <v>13085</v>
+      </c>
+      <c r="C138" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A139" s="5" t="inlineStr">
+        <is>
+          <t>Sacramento Fernández Domínguez</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="n">
+        <v>11128</v>
+      </c>
+      <c r="C139" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A140" s="5" t="inlineStr">
+        <is>
+          <t>Salud Garzón Tierno</t>
+        </is>
+      </c>
+      <c r="B140" s="6" t="n">
+        <v>17767</v>
+      </c>
+      <c r="C140" s="7" t="inlineStr">
+        <is>
+          <t>Maria Remesal</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A141" s="5" t="inlineStr">
+        <is>
+          <t>Santiago Aragón Ruiz</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="n">
+        <v>12939</v>
+      </c>
+      <c r="C141" s="7" t="inlineStr">
+        <is>
+          <t>J.A. Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A142" s="5" t="inlineStr">
+        <is>
+          <t>Serafín Martínez Pérez</t>
+        </is>
+      </c>
+      <c r="B142" s="6" t="n">
+        <v>16377</v>
+      </c>
+      <c r="C142" s="7" t="inlineStr">
+        <is>
+          <t>Leoncio Bernal</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A143" s="5" t="inlineStr">
+        <is>
+          <t>Sixto Luceño Pedraza</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="n">
+        <v>16434</v>
+      </c>
+      <c r="C143" s="7" t="inlineStr">
+        <is>
+          <t>J.A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A144" s="5" t="inlineStr">
+        <is>
+          <t>Sofia Pescador Gómez</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="n">
+        <v>13441</v>
+      </c>
+      <c r="C144" s="7" t="inlineStr">
+        <is>
+          <t>JA Peromingo (recetas por privado)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A145" s="5" t="inlineStr">
+        <is>
+          <t>Teodoro Pérez Sánchez</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="n">
+        <v>46527</v>
+      </c>
+      <c r="C145" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A146" s="5" t="inlineStr">
+        <is>
+          <t>Valentina Guerra Monroy</t>
+        </is>
+      </c>
+      <c r="B146" s="6" t="n">
+        <v>11505</v>
+      </c>
+      <c r="C146" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A147" s="5" t="inlineStr">
+        <is>
+          <t>Vicenta Fernández Casas</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="n">
+        <v>13001</v>
+      </c>
+      <c r="C147" s="7" t="inlineStr">
+        <is>
+          <t>Carmen Ballesteros</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A148" s="5" t="inlineStr">
+        <is>
+          <t>Victoria Rubio Vivas</t>
+        </is>
+      </c>
+      <c r="B148" s="6" t="n">
+        <v>13253</v>
+      </c>
+      <c r="C148" s="7" t="inlineStr">
+        <is>
+          <t>JA Peromingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A149" s="5" t="inlineStr">
+        <is>
+          <t>Victoriana García Conejero</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="n">
+        <v>11692</v>
+      </c>
+      <c r="C149" s="7" t="inlineStr">
+        <is>
+          <t>Jose A. Fuentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A150" s="5" t="inlineStr">
+        <is>
+          <t>Virgilia Aguilar Aguilar</t>
+        </is>
+      </c>
+      <c r="B150" s="6" t="n">
+        <v>46353</v>
+      </c>
+      <c r="C150" s="7" t="inlineStr">
+        <is>
+          <t>Rosby</t>
         </is>
       </c>
     </row>

--- a/assets/listado_pacientes.xlsx
+++ b/assets/listado_pacientes.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -105,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -126,6 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,13 +506,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:H158"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="17.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
@@ -561,45 +567,45 @@
     <row r="4" ht="45.75" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>Alicia Santos Hernández</t>
+          <t>Alfonsa Barrado Palomino</t>
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>27583</v>
+        <v>46467</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="5" ht="45.75" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>Alfonsa Barrado Palomino</t>
+          <t>Alfonso Alberto Cabrera López</t>
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>46467</v>
+        <v>22240</v>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="6" ht="60.75" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Alfonso Alberto Cabrera López</t>
+          <t>Alicia Santos Hernández</t>
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>22240</v>
+        <v>27583</v>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
       <c r="D6" s="1" t="n"/>
@@ -652,431 +658,431 @@
     <row r="10" ht="45.75" customHeight="1" thickBot="1">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Ángel Paniagua Benito</t>
+          <t>Antonia Ramos Martín</t>
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>16004</v>
+        <v>14930</v>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Jose A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="11" ht="45.75" customHeight="1" thickBot="1">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Ángela Prieto Guillén</t>
+          <t>Antonio Garcia-Matos Álvarez</t>
         </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>19419</v>
+        <v>15014</v>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Peromingo</t>
+          <t>Natalia</t>
         </is>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1" thickBot="1">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Ángela Miralles Vega</t>
+          <t>Antonio Gaytan Clemente</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>13122</v>
+        <v>12194</v>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Maria Remesal</t>
+          <t>Natalia</t>
         </is>
       </c>
     </row>
     <row r="13" ht="45.75" customHeight="1" thickBot="1">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Ángela Sánchez Sánchez</t>
+          <t>Antonio Palomo Maseda</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>12081</v>
+        <v>44805</v>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>María Remesal</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="14" ht="45.75" customHeight="1" thickBot="1">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Antonio Palomo Maseda</t>
+          <t>Avelina Pérez Garzón</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>44805</v>
+        <v>12583</v>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>Natalia Clemente</t>
         </is>
       </c>
     </row>
     <row r="15" ht="45.75" customHeight="1" thickBot="1">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Antonio Gaytan Clemente</t>
+          <t>Baldomera Gómez Ramos</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>12194</v>
+        <v>47082</v>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Natalia</t>
+          <t>M.ª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="16" ht="60.75" customHeight="1" thickBot="1">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Antonio Garcia-Matos Álvarez</t>
+          <t>Carmen Cobos Fernández</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>15014</v>
+        <v>12327</v>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>Natalia</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="17" ht="45.75" customHeight="1" thickBot="1">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Antonia Ramos Martín</t>
+          <t>Carmen Floriano Alfonso</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>14930</v>
+        <v>13270</v>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>Jose A. Fuentes</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="18" ht="45.75" customHeight="1" thickBot="1">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Avelina Pérez Garzón</t>
+          <t>Carmen Hernández Peris</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>12583</v>
+        <v>21153</v>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Natalia Clemente</t>
+          <t>Maria Remesal</t>
         </is>
       </c>
     </row>
     <row r="19" ht="45.75" customHeight="1" thickBot="1">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Baldomera Gómez Ramos</t>
+          <t>Carmen Sánchez Sánchez</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>47082</v>
+        <v>14062</v>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>M.ª Angeles Pérez</t>
+          <t>Jose A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="20" ht="45.75" customHeight="1" thickBot="1">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Carmen Cobos Fernández</t>
+          <t>Celedonio López Rina</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>12327</v>
+        <v>16499</v>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1" thickBot="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Carmen Floriano Alfonso</t>
+          <t>Cipriano Santos García</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>13270</v>
+        <v>14039</v>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>MUFACE</t>
         </is>
       </c>
     </row>
     <row r="22" ht="45.75" customHeight="1" thickBot="1">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Carmen Hernández Peris</t>
+          <t>Concepción Calderón Navarro</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>21153</v>
+        <v>12653</v>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>Maria Remesal</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="23" ht="45.75" customHeight="1" thickBot="1">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Carmen Sánchez Sánchez</t>
+          <t>Concepción Hernández Muñoz</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>14062</v>
+        <v>18858</v>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>Jose A. Fuentes</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1" thickBot="1">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Celedonio López Rina</t>
+          <t>Consuelo Gómez Galeano</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>16499</v>
+        <v>12001</v>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="25" ht="45.75" customHeight="1" thickBot="1">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>Concepción Hernández Muñoz</t>
+          <t>Crisantos García Merino</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>18858</v>
+        <v>14214</v>
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="26" ht="45.75" customHeight="1" thickBot="1">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>Concepción Calderón Navarro</t>
+          <t>Damiana Fernández García</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>12653</v>
+        <v>11907</v>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Susana Verdión</t>
         </is>
       </c>
     </row>
     <row r="27" ht="45.75" customHeight="1" thickBot="1">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>Consuelo Gómez Galeano</t>
+          <t>Daniel Gracia Miranda</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>12001</v>
+        <v>10961</v>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="28" ht="45.75" customHeight="1" thickBot="1">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>Cipriano Santos García</t>
+          <t>Daniela López Rina</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>14039</v>
+        <v>47159</v>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>MUFACE</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="29" ht="45.75" customHeight="1" thickBot="1">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>Crisantos García Merino</t>
+          <t>Desideria González Hernández</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>14214</v>
+        <v>12096</v>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Peromingo</t>
         </is>
       </c>
     </row>
     <row r="30" ht="45.75" customHeight="1" thickBot="1">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>Daniel Gracia Miranda</t>
+          <t>Elena González Palomares</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>10961</v>
+        <v>10965</v>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Juan A. Peromingo</t>
         </is>
       </c>
     </row>
     <row r="31" ht="30.75" customHeight="1" thickBot="1">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>Daniela López Rina</t>
+          <t>Elia Candelada Peña</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>47159</v>
+        <v>13393</v>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="32" ht="45.75" customHeight="1" thickBot="1">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>Damiana Fernández García</t>
+          <t>Eloy Ramos Guillen</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>11907</v>
+        <v>11243</v>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdión</t>
+          <t>M.ª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="33" ht="45.75" customHeight="1" thickBot="1">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>Desideria González Hernández</t>
+          <t>Elvira González Castilla</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>12096</v>
+        <v>47035</v>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Peromingo</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="34" ht="45.75" customHeight="1" thickBot="1">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>Elena González Palomares</t>
+          <t>Emilia Cerro Flores</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>10965</v>
+        <v>11181</v>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Juan A. Peromingo</t>
+          <t>Jose A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="35" ht="45.75" customHeight="1" thickBot="1">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>Elia Candelada Peña</t>
+          <t>Emilia Sierra Alonso</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>13393</v>
+        <v>47213</v>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Natalia Clemente</t>
         </is>
       </c>
     </row>
     <row r="36" ht="45.75" customHeight="1" thickBot="1">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>Eloy Ramos Guillen</t>
+          <t>Emilia Vecino Collazos</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>11243</v>
+        <v>11219</v>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>M.ª Angeles Pérez</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="37" ht="45.75" customHeight="1" thickBot="1">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>Elvira González Castilla</t>
+          <t>Emiliana Caldera Sáez</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>47035</v>
+        <v>12002</v>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>M.ª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="38" ht="45.75" customHeight="1" thickBot="1">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>Emilia Cerro Flores</t>
+          <t>Emiliano Cobos Fernández</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>11181</v>
+        <v>11863</v>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
@@ -1087,176 +1093,176 @@
     <row r="39" ht="45.75" customHeight="1" thickBot="1">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>Emilia Vecino Collazos</t>
+          <t>Emiliano González Pastor</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>11219</v>
+        <v>46791</v>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="40" ht="45.75" customHeight="1" thickBot="1">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>Emilia Sierra Alonso</t>
+          <t>Emilio Gil Gil</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>47213</v>
+        <v>12668</v>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Natalia Clemente</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="41" ht="45.75" customHeight="1" thickBot="1">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>Emiliana Caldera Sáez</t>
+          <t>Encarnación Lescura Aycart</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>12002</v>
+        <v>44503</v>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>M.ª Angeles Pérez</t>
+          <t>J.A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="42" ht="45.75" customHeight="1" thickBot="1">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>Emiliano Cobos Fernández</t>
+          <t>Encarnación López Pérez</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>11863</v>
+        <v>12860</v>
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>Jose A. Fuentes</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="43" ht="45.75" customHeight="1" thickBot="1">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>Emiliano González Pastor</t>
+          <t>Encarnación Recio Tejeda</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>46791</v>
+        <v>15508</v>
       </c>
       <c r="C43" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="44" ht="30.75" customHeight="1" thickBot="1">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>Emilio Gil Gil</t>
+          <t>Epifanio Vecino Collazos</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>12668</v>
+        <v>46543</v>
       </c>
       <c r="C44" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Jose A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="45" ht="45.75" customHeight="1" thickBot="1">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>Encarnación López Pérez</t>
+          <t>Esperanza López Álvarez</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>12860</v>
+        <v>12526</v>
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="46" ht="45.75" customHeight="1" thickBot="1">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>Encarnación Recio Tejeda</t>
+          <t>Eugenia González Ruano</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>15508</v>
+        <v>17517</v>
       </c>
       <c r="C46" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Mª Ángeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="47" ht="45.75" customHeight="1" thickBot="1">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>Encarnación Lescura Aycart</t>
+          <t>Eugenia Rama González</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>44503</v>
+        <v>13861</v>
       </c>
       <c r="C47" s="7" t="inlineStr">
         <is>
-          <t>J.A. Fuentes</t>
+          <t>Juan A. Peromingo</t>
         </is>
       </c>
     </row>
     <row r="48" ht="45.75" customHeight="1" thickBot="1">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>Epifanio Vecino Collazos</t>
+          <t>Eulalia Ruano Paniagua</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>46543</v>
+        <v>45508</v>
       </c>
       <c r="C48" s="7" t="inlineStr">
         <is>
-          <t>Jose A. Fuentes</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="49" ht="45.75" customHeight="1" thickBot="1">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>Esperanza López Álvarez</t>
+          <t>Fernando Grande Peral</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>12526</v>
+        <v>11013</v>
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Natalia Clemente</t>
         </is>
       </c>
     </row>
     <row r="50" ht="45.75" customHeight="1" thickBot="1">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>Eugenia Rama González</t>
+          <t>Fernando Hinojal Macias</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>13861</v>
+        <v>23704</v>
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
@@ -1267,176 +1273,176 @@
     <row r="51" ht="45.75" customHeight="1" thickBot="1">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>Eugenia González Ruano</t>
+          <t>Fidela Dueñas Gutiérrez</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>17517</v>
+        <v>13420</v>
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>Mª Ángeles Pérez</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="52" ht="45.75" customHeight="1" thickBot="1">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>Eulalia Ruano Paniagua</t>
+          <t>Florencia Rodríguez Clemente</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>45508</v>
+        <v>45940</v>
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Natalia</t>
         </is>
       </c>
     </row>
     <row r="53" ht="30.75" customHeight="1" thickBot="1">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>Félix García Fraile</t>
+          <t>Florentino Galaviz Macias</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>13460</v>
+        <v>17465</v>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Natalia Clemente</t>
         </is>
       </c>
     </row>
     <row r="54" ht="45.75" customHeight="1" thickBot="1">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>Fernando Hinojal Macias</t>
+          <t>Francisca Domínguez Fernández</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>23704</v>
+        <v>17573</v>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Juan A. Peromingo</t>
+          <t>ADESLAS</t>
         </is>
       </c>
     </row>
     <row r="55" ht="45.75" customHeight="1" thickBot="1">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>Fernando Grande Peral</t>
+          <t>Francisca González Hernández</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>11013</v>
+        <v>15085</v>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Natalia Clemente</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="56" ht="45.75" customHeight="1" thickBot="1">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>Fidela Dueñas Gutiérrez</t>
+          <t>Francisca Malpartida Cipriano</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>13420</v>
+        <v>20975</v>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="57" ht="45.75" customHeight="1" thickBot="1">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>Florencia Rodríguez Clemente</t>
+          <t>Francisca Pámpano Chapinal</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>45940</v>
+        <v>11907</v>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Natalia</t>
+          <t>MUFACE</t>
         </is>
       </c>
     </row>
     <row r="58" ht="45.75" customHeight="1" thickBot="1">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>Florentino Galaviz Macias</t>
+          <t>Francisca Sánchez Redondo</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>17465</v>
+        <v>16494</v>
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Natalia Clemente</t>
+          <t>Natalia</t>
         </is>
       </c>
     </row>
     <row r="59" ht="45.75" customHeight="1" thickBot="1">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>Francisca Pámpano Chapinal</t>
+          <t>Francisca Vaz Gozalo</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>11907</v>
+        <v>47247</v>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>MUFACE</t>
+          <t>ADESLAS</t>
         </is>
       </c>
     </row>
     <row r="60" ht="45.75" customHeight="1" thickBot="1">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>Francisca González Hernández</t>
+          <t>Francisco Alonso Buezas</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>15085</v>
+        <v>19413</v>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="61" ht="45.75" customHeight="1" thickBot="1">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>Francisca Domínguez Fernández</t>
+          <t>Francisco Uzquiza Ojeda</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>17573</v>
+        <v>20406</v>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>ADESLAS</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="62" ht="45.75" customHeight="1" thickBot="1">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>Francisca Malpartida Cipriano</t>
+          <t>Félix García Fraile</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>20975</v>
+        <v>13460</v>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
@@ -1447,41 +1453,41 @@
     <row r="63" ht="45.75" customHeight="1" thickBot="1">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>Francisca Sánchez Redondo</t>
+          <t>Gabriela Dominguez Leo</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>16494</v>
+        <v>12066</v>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Natalia</t>
+          <t>Mª Ángeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="64" ht="30.75" customHeight="1" thickBot="1">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>Francisca Vaz Gozalo</t>
+          <t>Germán Pulido Rubio</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>47247</v>
+        <v>13068</v>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>ADESLAS</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="65" ht="45.75" customHeight="1" thickBot="1">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>Francisco Alonso Buezas</t>
+          <t>Germán de la Cruz García</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>19413</v>
+        <v>13629</v>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
@@ -1492,596 +1498,596 @@
     <row r="66" ht="45.75" customHeight="1" thickBot="1">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>Francisco Uzquiza Ojeda</t>
+          <t>Guillermo Gómez Canelo</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>20406</v>
+        <v>11591</v>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="67" ht="45.75" customHeight="1" thickBot="1">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>Gabriela Dominguez Leo</t>
+          <t>Higinio Salas Romero</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>12066</v>
+        <v>13286</v>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Mª Ángeles Pérez</t>
+          <t>Peromingo</t>
         </is>
       </c>
     </row>
     <row r="68" ht="45.75" customHeight="1" thickBot="1">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>Germán de la Cruz García</t>
+          <t>Hortensia Parra Macias</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>13629</v>
+        <v>11203</v>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Jose A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="69" ht="45.75" customHeight="1" thickBot="1">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>Germán Pulido Rubio</t>
+          <t>Hortensia la Calle Domínguez</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>13068</v>
+        <v>16163</v>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="70" ht="45.75" customHeight="1" thickBot="1">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>Guillermo Gómez Canelo</t>
+          <t>Ignacio García García</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>11591</v>
+        <v>14106</v>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>M.ª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="71" ht="45.75" customHeight="1" thickBot="1">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>Higinio Salas Romero</t>
+          <t>Inés Cortes Arranz</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>13286</v>
+        <v>12634</v>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Peromingo</t>
+          <t>Maria Remesal</t>
         </is>
       </c>
     </row>
     <row r="72" ht="45.75" customHeight="1" thickBot="1">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>Hortensia Parra Macias</t>
+          <t>Isabel Hernández García</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>11203</v>
+        <v>11309</v>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Jose A. Fuentes</t>
+          <t>M.ª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="73" ht="45.75" customHeight="1" thickBot="1">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>Hortensia la Calle Domínguez</t>
+          <t>Isabel Lucas Chaparro</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>16163</v>
+        <v>11878</v>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="74" ht="45.75" customHeight="1" thickBot="1">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>Ignacio García García</t>
+          <t>Isidoro Pérez Sánchez</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>14106</v>
+        <v>11186</v>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>M.ª Angeles Pérez</t>
+          <t>Adeslas</t>
         </is>
       </c>
     </row>
     <row r="75" ht="30.75" customHeight="1" thickBot="1">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>Inés Cortes Arranz</t>
+          <t>Jacinta Calzas Sánchez</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>12634</v>
+        <v>11699</v>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Maria Remesal</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="76" ht="45.75" customHeight="1" thickBot="1">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>Isabel Hernández García</t>
+          <t>Jacinto Redondo Hernández</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>11309</v>
+        <v>11617</v>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>M.ª Angeles Pérez</t>
+          <t>J.A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="77" ht="30.75" customHeight="1" thickBot="1">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>Isabel Lucas Chaparro</t>
+          <t>Jerónimo Prieto Peña</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>11878</v>
+        <v>11558</v>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Rosario González</t>
         </is>
       </c>
     </row>
     <row r="78" ht="45.75" customHeight="1" thickBot="1">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>Isidoro Pérez Sánchez</t>
+          <t>Jesús Hernández Arrojo</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>11186</v>
+        <v>46976</v>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Adeslas</t>
+          <t>Rosario González</t>
         </is>
       </c>
     </row>
     <row r="79" ht="45.75" customHeight="1" thickBot="1">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>Jacinta Calzas Sánchez</t>
+          <t>Jose Luis Galindo López</t>
         </is>
       </c>
       <c r="B79" s="6" t="n">
-        <v>11699</v>
+        <v>14702</v>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="80" ht="45.75" customHeight="1" thickBot="1">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>Jacinto Redondo Hernández</t>
+          <t>Josefa Platero Alfonso</t>
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>11617</v>
+        <v>12928</v>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>J.A. Fuentes</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="81" ht="45.75" customHeight="1" thickBot="1">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>Jesús Hernández Arrojo</t>
+          <t>Juan José Rodríguez Mesa</t>
         </is>
       </c>
       <c r="B81" s="6" t="n">
-        <v>46976</v>
+        <v>17610</v>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Rosario González</t>
+          <t>M. A. Pérez</t>
         </is>
       </c>
     </row>
     <row r="82" ht="30.75" customHeight="1" thickBot="1">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>Jerónimo Prieto Peña</t>
+          <t>Juana Diaz Torres</t>
         </is>
       </c>
       <c r="B82" s="6" t="n">
-        <v>11558</v>
+        <v>19305</v>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Rosario González</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="83" ht="45.75" customHeight="1" thickBot="1">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>Jose Luis Galindo López</t>
+          <t>Juana Giraldo Briones</t>
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>14702</v>
+        <v>45634</v>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="84" ht="45.75" customHeight="1" thickBot="1">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>Josefa Platero Alfonso</t>
+          <t>Juana Gómez Asensio</t>
         </is>
       </c>
       <c r="B84" s="6" t="n">
-        <v>12928</v>
+        <v>12650</v>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>J.A. Peromingo</t>
         </is>
       </c>
     </row>
     <row r="85" ht="45.75" customHeight="1" thickBot="1">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>Juan José Rodríguez Mesa</t>
+          <t>Julia Rodríguez Fuentes</t>
         </is>
       </c>
       <c r="B85" s="6" t="n">
-        <v>17610</v>
+        <v>14631</v>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>M. A. Pérez</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="86" ht="30.75" customHeight="1" thickBot="1">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>Juana Diaz Torres</t>
+          <t>Juliana Cuesta Domínguez</t>
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>19305</v>
+        <v>12599</v>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="87" ht="45.75" customHeight="1" thickBot="1">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>Juana Giraldo Briones</t>
+          <t>Juliana Sánchez Ramiro</t>
         </is>
       </c>
       <c r="B87" s="6" t="n">
-        <v>45634</v>
+        <v>13033</v>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>M.ª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="88" ht="45.75" customHeight="1" thickBot="1">
       <c r="A88" s="5" t="inlineStr">
         <is>
-          <t>Juana Gómez Asensio</t>
+          <t>Julián Peña Montero</t>
         </is>
       </c>
       <c r="B88" s="6" t="n">
-        <v>12650</v>
+        <v>16856</v>
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>J.A. Peromingo</t>
+          <t>J. A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="89" ht="30.75" customHeight="1" thickBot="1">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>Julián Peña Montero</t>
+          <t>Justa Moreno Herrero</t>
         </is>
       </c>
       <c r="B89" s="6" t="n">
-        <v>16856</v>
+        <v>13090</v>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>J. A. Fuentes</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="90" ht="45.75" customHeight="1" thickBot="1">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cuesta Domínguez</t>
+          <t>Justino Paredes Porras</t>
         </is>
       </c>
       <c r="B90" s="6" t="n">
-        <v>12599</v>
+        <v>14833</v>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Rosario González</t>
         </is>
       </c>
     </row>
     <row r="91" ht="45.75" customHeight="1" thickBot="1">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>Juliana Sánchez Ramiro</t>
+          <t>Leonor Ginés Blázquez</t>
         </is>
       </c>
       <c r="B91" s="6" t="n">
-        <v>13033</v>
+        <v>11377</v>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>M.ª Angeles Pérez</t>
+          <t>Peromingo</t>
         </is>
       </c>
     </row>
     <row r="92" ht="45.75" customHeight="1" thickBot="1">
       <c r="A92" s="5" t="inlineStr">
         <is>
-          <t>Julia Rodríguez Fuentes</t>
+          <t>Leonor Mora Sánchez</t>
         </is>
       </c>
       <c r="B92" s="6" t="n">
-        <v>14631</v>
+        <v>11846</v>
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Natalia</t>
         </is>
       </c>
     </row>
     <row r="93" ht="45.75" customHeight="1" thickBot="1">
       <c r="A93" s="5" t="inlineStr">
         <is>
-          <t>Justa Moreno Herrero</t>
+          <t>Luciana Hermoso Lorenzo</t>
         </is>
       </c>
       <c r="B93" s="6" t="n">
-        <v>13090</v>
+        <v>47122</v>
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="94" ht="45.75" customHeight="1" thickBot="1">
       <c r="A94" s="5" t="inlineStr">
         <is>
-          <t>Justino Paredes Porras</t>
+          <t>Luis Rodríguez Jiménez</t>
         </is>
       </c>
       <c r="B94" s="6" t="n">
-        <v>14833</v>
+        <v>11556</v>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Rosario González</t>
+          <t>M.ª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="95" ht="45.75" customHeight="1" thickBot="1">
       <c r="A95" s="5" t="inlineStr">
         <is>
-          <t>Leonor Ginés Blázquez</t>
+          <t>Luis Romero Pico</t>
         </is>
       </c>
       <c r="B95" s="6" t="n">
-        <v>11377</v>
+        <v>11687</v>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Peromingo</t>
+          <t>J.A. Peromingo</t>
         </is>
       </c>
     </row>
     <row r="96" ht="45.75" customHeight="1" thickBot="1">
       <c r="A96" s="5" t="inlineStr">
         <is>
-          <t>Leonor Mora Sánchez</t>
+          <t>Luis Sánchez Fernández</t>
         </is>
       </c>
       <c r="B96" s="6" t="n">
-        <v>11846</v>
+        <v>14008</v>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Natalia</t>
+          <t>Rosario González</t>
         </is>
       </c>
     </row>
     <row r="97" ht="45.75" customHeight="1" thickBot="1">
       <c r="A97" s="5" t="inlineStr">
         <is>
-          <t>Luciana Hermoso Lorenzo</t>
+          <t>Luisa Caballero Herrero</t>
         </is>
       </c>
       <c r="B97" s="6" t="n">
-        <v>47122</v>
+        <v>12815</v>
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Maria Remesal</t>
         </is>
       </c>
     </row>
     <row r="98" ht="45.75" customHeight="1" thickBot="1">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>Luis Rodríguez Jiménez</t>
+          <t>Luisa Robles Muñoz</t>
         </is>
       </c>
       <c r="B98" s="6" t="n">
-        <v>11556</v>
+        <v>12189</v>
       </c>
       <c r="C98" s="7" t="inlineStr">
         <is>
-          <t>M.ª Angeles Pérez</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="99" ht="45.75" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>Luis Romero Pico</t>
+          <t>Luisa Santos Gil</t>
         </is>
       </c>
       <c r="B99" s="6" t="n">
-        <v>11687</v>
+        <v>11717</v>
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>J.A. Peromingo</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="100" ht="45.75" customHeight="1" thickBot="1">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>Luis Sánchez Fernández</t>
+          <t>Luisa Vivas García</t>
         </is>
       </c>
       <c r="B100" s="6" t="n">
-        <v>14008</v>
+        <v>14914</v>
       </c>
       <c r="C100" s="7" t="inlineStr">
         <is>
-          <t>Rosario González</t>
+          <t>MUFACE</t>
         </is>
       </c>
     </row>
     <row r="101" ht="45.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="inlineStr">
         <is>
-          <t>Luisa Robles Muñoz</t>
+          <t>Luzdivina Castañares Sánchez</t>
         </is>
       </c>
       <c r="B101" s="6" t="n">
-        <v>12189</v>
+        <v>12354</v>
       </c>
       <c r="C101" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="102" ht="45.75" customHeight="1" thickBot="1">
       <c r="A102" s="5" t="inlineStr">
         <is>
-          <t>Luisa Caballero Herrero</t>
+          <t>M. Agustina Martín Martín</t>
         </is>
       </c>
       <c r="B102" s="6" t="n">
-        <v>12815</v>
+        <v>12935</v>
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>Maria Remesal</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="103" ht="30.75" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="inlineStr">
         <is>
-          <t>Luisa Santos Gil</t>
+          <t>M.ª Angeles Lucio Conejero</t>
         </is>
       </c>
       <c r="B103" s="6" t="n">
-        <v>11717</v>
+        <v>44948</v>
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>J. A. Peromingo</t>
         </is>
       </c>
     </row>
     <row r="104" ht="30.75" customHeight="1" thickBot="1">
       <c r="A104" s="5" t="inlineStr">
         <is>
-          <t>Luisa Vivas García</t>
+          <t>M.ª Antonia Hernández Santos</t>
         </is>
       </c>
       <c r="B104" s="6" t="n">
-        <v>14914</v>
+        <v>13949</v>
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>MUFACE</t>
+          <t>ADESLAS</t>
         </is>
       </c>
     </row>
     <row r="105" ht="45.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="inlineStr">
         <is>
-          <t>Luzdivina Castañares Sánchez</t>
+          <t>M.ª Carmen Valencia Castañares</t>
         </is>
       </c>
       <c r="B105" s="6" t="n">
-        <v>12354</v>
+        <v>13765</v>
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
@@ -2092,146 +2098,146 @@
     <row r="106" ht="60.75" customHeight="1" thickBot="1">
       <c r="A106" s="5" t="inlineStr">
         <is>
-          <t>M.ª Angeles Lucio Conejero</t>
+          <t>M.ª Luisa Alonso Palacios</t>
         </is>
       </c>
       <c r="B106" s="6" t="n">
-        <v>44948</v>
+        <v>11197</v>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>J. A. Peromingo</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="107" ht="45.75" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="inlineStr">
         <is>
-          <t>M. Agustina Martín Martín</t>
+          <t>M.ª Luisa Fernández Sanguino</t>
         </is>
       </c>
       <c r="B107" s="6" t="n">
-        <v>12935</v>
+        <v>46823</v>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Mª Angeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="108" ht="60.75" customHeight="1" thickBot="1">
       <c r="A108" s="5" t="inlineStr">
         <is>
-          <t>M.ª Antonia Hernández Santos</t>
+          <t>M.ª Teresa Beato Gómez</t>
         </is>
       </c>
       <c r="B108" s="6" t="n">
-        <v>13949</v>
+        <v>15438</v>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>ADESLAS</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="109" ht="45.75" customHeight="1" thickBot="1">
       <c r="A109" s="5" t="inlineStr">
         <is>
-          <t>M.ª Luisa Alonso Palacios</t>
+          <t>M.ª Teresa Morales Morales</t>
         </is>
       </c>
       <c r="B109" s="6" t="n">
-        <v>11197</v>
+        <v>15410</v>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>J. A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="110" ht="45.75" customHeight="1" thickBot="1">
       <c r="A110" s="5" t="inlineStr">
         <is>
-          <t>M.ª Luisa Fernández Sanguino</t>
+          <t>Manuel Sánchez Grande</t>
         </is>
       </c>
       <c r="B110" s="6" t="n">
-        <v>46823</v>
+        <v>27818</v>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Mª Angeles Pérez</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="111" ht="45.75" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="inlineStr">
         <is>
-          <t>M.ª Carmen Valencia Castañares</t>
+          <t>Manuel Urrutia Avisrror</t>
         </is>
       </c>
       <c r="B111" s="6" t="n">
-        <v>13765</v>
+        <v>15454</v>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="112" ht="45.75" customHeight="1" thickBot="1">
       <c r="A112" s="5" t="inlineStr">
         <is>
-          <t>M.ª Teresa Beato Gómez</t>
+          <t>Manuel Vicente García</t>
         </is>
       </c>
       <c r="B112" s="6" t="n">
-        <v>15438</v>
+        <v>12318</v>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="113" ht="45.75" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="inlineStr">
         <is>
-          <t>M.ª Teresa Morales Morales</t>
+          <t>Manuela Casquet Gregorio</t>
         </is>
       </c>
       <c r="B113" s="6" t="n">
-        <v>15410</v>
+        <v>13035</v>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>J. A. Fuentes</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="114" ht="45.75" customHeight="1" thickBot="1">
       <c r="A114" s="5" t="inlineStr">
         <is>
-          <t>Manuel Sánchez Grande</t>
+          <t>Maria Eugenia Diaz Rodríguez</t>
         </is>
       </c>
       <c r="B114" s="6" t="n">
-        <v>27818</v>
+        <v>17311</v>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>Susana Verdion</t>
         </is>
       </c>
     </row>
     <row r="115" ht="45.75" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="inlineStr">
         <is>
-          <t>Manuel Urrutia Avisrror</t>
+          <t>Maria Isabel Fernández González</t>
         </is>
       </c>
       <c r="B115" s="6" t="n">
-        <v>15454</v>
+        <v>16202</v>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
@@ -2242,131 +2248,131 @@
     <row r="116" ht="45.75" customHeight="1" thickBot="1">
       <c r="A116" s="5" t="inlineStr">
         <is>
-          <t>Manuel Vicente García</t>
+          <t>Maria Pilar Blázquez Gándara</t>
         </is>
       </c>
       <c r="B116" s="6" t="n">
-        <v>12318</v>
+        <v>17539</v>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="117" ht="45.75" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="inlineStr">
         <is>
-          <t>Manuela Casquet Gregorio</t>
+          <t>Maria Santiago Garrido</t>
         </is>
       </c>
       <c r="B117" s="6" t="n">
-        <v>13035</v>
+        <v>11965</v>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="118" ht="60.75" customHeight="1" thickBot="1">
       <c r="A118" s="5" t="inlineStr">
         <is>
-          <t>Maria Isabel Fernández González</t>
+          <t>Maria Serrano Fernández</t>
         </is>
       </c>
       <c r="B118" s="6" t="n">
-        <v>16202</v>
+        <v>11196</v>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="119" ht="60.75" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="inlineStr">
         <is>
-          <t>Maria Eugenia Diaz Rodríguez</t>
+          <t>María Burdallo Bermejo</t>
         </is>
       </c>
       <c r="B119" s="6" t="n">
-        <v>17311</v>
+        <v>11906</v>
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Susana Verdion</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="120" ht="45.75" customHeight="1" thickBot="1">
       <c r="A120" s="5" t="inlineStr">
         <is>
-          <t>Maria Pilar Blázquez Gándara</t>
+          <t>María León Sánchez</t>
         </is>
       </c>
       <c r="B120" s="6" t="n">
-        <v>17539</v>
+        <v>12276</v>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>Mª Ángeles Pérez</t>
         </is>
       </c>
     </row>
     <row r="121" ht="45.75" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="inlineStr">
         <is>
-          <t>María Burdallo Bermejo</t>
+          <t>Miguel Ángel García Cortés</t>
         </is>
       </c>
       <c r="B121" s="6" t="n">
-        <v>11906</v>
+        <v>46683</v>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Rosby</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="122" ht="30.75" customHeight="1" thickBot="1">
       <c r="A122" s="5" t="inlineStr">
         <is>
-          <t>María León Sánchez</t>
+          <t>Milagros Vivas Manzano</t>
         </is>
       </c>
       <c r="B122" s="6" t="n">
-        <v>12276</v>
+        <v>17281</v>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Mª Ángeles Pérez</t>
+          <t>María Remesal</t>
         </is>
       </c>
     </row>
     <row r="123" ht="45.75" customHeight="1" thickBot="1">
       <c r="A123" s="5" t="inlineStr">
         <is>
-          <t>Maria Santiago Garrido</t>
+          <t>Modesta Fabiana Lucas Gómez</t>
         </is>
       </c>
       <c r="B123" s="6" t="n">
-        <v>11965</v>
+        <v>47444</v>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="124" ht="45.75" customHeight="1" thickBot="1">
       <c r="A124" s="5" t="inlineStr">
         <is>
-          <t>Maria Serrano Fernández</t>
+          <t>Narcisa García Giménez</t>
         </is>
       </c>
       <c r="B124" s="6" t="n">
-        <v>11196</v>
+        <v>11263</v>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
@@ -2377,161 +2383,161 @@
     <row r="125" ht="60.75" customHeight="1" thickBot="1">
       <c r="A125" s="5" t="inlineStr">
         <is>
-          <t>Miguel Ángel García Cortés</t>
+          <t>Nieves Pérez Prieto</t>
         </is>
       </c>
       <c r="B125" s="6" t="n">
-        <v>46683</v>
+        <v>46593</v>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>María Remesal</t>
         </is>
       </c>
     </row>
     <row r="126" ht="45.75" customHeight="1" thickBot="1">
       <c r="A126" s="5" t="inlineStr">
         <is>
-          <t>Milagros Vivas Manzano</t>
+          <t>Orencio Gómez Cobos</t>
         </is>
       </c>
       <c r="B126" s="6" t="n">
-        <v>17281</v>
+        <v>46197</v>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>María Remesal</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="127" ht="60.75" customHeight="1" thickBot="1">
       <c r="A127" s="5" t="inlineStr">
         <is>
-          <t>Modesta Fabiana Lucas Gómez</t>
+          <t>Pedro Diaz Suero</t>
         </is>
       </c>
       <c r="B127" s="6" t="n">
-        <v>47444</v>
+        <v>16774</v>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="128" ht="45.75" customHeight="1" thickBot="1">
       <c r="A128" s="5" t="inlineStr">
         <is>
-          <t>Narcisa García Giménez</t>
+          <t>Pedro Fernández García</t>
         </is>
       </c>
       <c r="B128" s="6" t="n">
-        <v>11263</v>
+        <v>12171</v>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Cristina Plasencia</t>
         </is>
       </c>
     </row>
     <row r="129" ht="45.75" customHeight="1" thickBot="1">
       <c r="A129" s="5" t="inlineStr">
         <is>
-          <t>Nieves Pérez Prieto</t>
+          <t>Petra Hernández Sánchez</t>
         </is>
       </c>
       <c r="B129" s="6" t="n">
-        <v>46593</v>
+        <v>11637</v>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>María Remesal</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="130" ht="45.75" customHeight="1" thickBot="1">
       <c r="A130" s="5" t="inlineStr">
         <is>
-          <t>Orencio Gómez Cobos</t>
+          <t>Petra Idelfonsa Abad Burgos</t>
         </is>
       </c>
       <c r="B130" s="6" t="n">
-        <v>46197</v>
+        <v>46040</v>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Rosario</t>
         </is>
       </c>
     </row>
     <row r="131" ht="45.75" customHeight="1" thickBot="1">
       <c r="A131" s="5" t="inlineStr">
         <is>
-          <t>Pedro Fernández García</t>
+          <t>Petra Marcos Sánchez</t>
         </is>
       </c>
       <c r="B131" s="6" t="n">
-        <v>12171</v>
+        <v>13191</v>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Cristina Plasencia</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="132" ht="30.75" customHeight="1" thickBot="1">
       <c r="A132" s="5" t="inlineStr">
         <is>
-          <t>Pedro Diaz Suero</t>
+          <t>Primitivo Prieto Fernández</t>
         </is>
       </c>
       <c r="B132" s="6" t="n">
-        <v>16774</v>
+        <v>12892</v>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="133" ht="60.75" customHeight="1" thickBot="1">
       <c r="A133" s="5" t="inlineStr">
         <is>
-          <t>Petra Idelfonsa Abad Burgos</t>
+          <t>Ramon Conejero Fabian</t>
         </is>
       </c>
       <c r="B133" s="6" t="n">
-        <v>46040</v>
+        <v>16680</v>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="134" ht="45.75" customHeight="1" thickBot="1">
       <c r="A134" s="5" t="inlineStr">
         <is>
-          <t>Petra Hernández Sánchez</t>
+          <t>Rosario Rosa Rubio</t>
         </is>
       </c>
       <c r="B134" s="6" t="n">
-        <v>11637</v>
+        <v>13085</v>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Jose A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="135" ht="45.75" customHeight="1" thickBot="1">
       <c r="A135" s="5" t="inlineStr">
         <is>
-          <t>Petra Marcos Sánchez</t>
+          <t>Sacramento Fernández Domínguez</t>
         </is>
       </c>
       <c r="B135" s="6" t="n">
-        <v>13191</v>
+        <v>11128</v>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
@@ -2542,146 +2548,146 @@
     <row r="136" ht="45.75" customHeight="1" thickBot="1">
       <c r="A136" s="5" t="inlineStr">
         <is>
-          <t>Primitivo Prieto Fernández</t>
+          <t>Salud Garzón Tierno</t>
         </is>
       </c>
       <c r="B136" s="6" t="n">
-        <v>12892</v>
+        <v>17767</v>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>Maria Remesal</t>
         </is>
       </c>
     </row>
     <row r="137" ht="45.75" customHeight="1" thickBot="1">
       <c r="A137" s="5" t="inlineStr">
         <is>
-          <t>Ramon Conejero Fabian</t>
+          <t>Santiago Aragón Ruiz</t>
         </is>
       </c>
       <c r="B137" s="6" t="n">
-        <v>16680</v>
+        <v>12939</v>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>J.A. Peromingo</t>
         </is>
       </c>
     </row>
     <row r="138" ht="30.75" customHeight="1" thickBot="1">
       <c r="A138" s="5" t="inlineStr">
         <is>
-          <t>Rosario Rosa Rubio</t>
+          <t>Serafín Martínez Pérez</t>
         </is>
       </c>
       <c r="B138" s="6" t="n">
-        <v>13085</v>
+        <v>16377</v>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Jose A. Fuentes</t>
+          <t>Leoncio Bernal</t>
         </is>
       </c>
     </row>
     <row r="139" ht="45.75" customHeight="1" thickBot="1">
       <c r="A139" s="5" t="inlineStr">
         <is>
-          <t>Sacramento Fernández Domínguez</t>
+          <t>Sixto Luceño Pedraza</t>
         </is>
       </c>
       <c r="B139" s="6" t="n">
-        <v>11128</v>
+        <v>16434</v>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Carmen Ballesteros</t>
+          <t>J.A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="140" ht="45.75" customHeight="1" thickBot="1">
       <c r="A140" s="5" t="inlineStr">
         <is>
-          <t>Salud Garzón Tierno</t>
+          <t>Sofia Pescador Gómez</t>
         </is>
       </c>
       <c r="B140" s="6" t="n">
-        <v>17767</v>
+        <v>13441</v>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Maria Remesal</t>
+          <t>JA Peromingo (recetas por privado)</t>
         </is>
       </c>
     </row>
     <row r="141" ht="30.75" customHeight="1" thickBot="1">
       <c r="A141" s="5" t="inlineStr">
         <is>
-          <t>Santiago Aragón Ruiz</t>
+          <t>Teodoro Pérez Sánchez</t>
         </is>
       </c>
       <c r="B141" s="6" t="n">
-        <v>12939</v>
+        <v>46527</v>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>J.A. Peromingo</t>
+          <t>Jose A. Fuentes</t>
         </is>
       </c>
     </row>
     <row r="142" ht="45.75" customHeight="1" thickBot="1">
       <c r="A142" s="5" t="inlineStr">
         <is>
-          <t>Serafín Martínez Pérez</t>
+          <t>Valentina Guerra Monroy</t>
         </is>
       </c>
       <c r="B142" s="6" t="n">
-        <v>16377</v>
+        <v>11505</v>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Leoncio Bernal</t>
+          <t>Rosby</t>
         </is>
       </c>
     </row>
     <row r="143" ht="45.75" customHeight="1" thickBot="1">
       <c r="A143" s="5" t="inlineStr">
         <is>
-          <t>Sixto Luceño Pedraza</t>
+          <t>Vicenta Fernández Casas</t>
         </is>
       </c>
       <c r="B143" s="6" t="n">
-        <v>16434</v>
+        <v>13001</v>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>J.A. Fuentes</t>
+          <t>Carmen Ballesteros</t>
         </is>
       </c>
     </row>
     <row r="144" ht="75.75" customHeight="1" thickBot="1">
       <c r="A144" s="5" t="inlineStr">
         <is>
-          <t>Sofia Pescador Gómez</t>
+          <t>Victoria Rubio Vivas</t>
         </is>
       </c>
       <c r="B144" s="6" t="n">
-        <v>13441</v>
+        <v>13253</v>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>JA Peromingo (recetas por privado)</t>
+          <t>JA Peromingo</t>
         </is>
       </c>
     </row>
     <row r="145" ht="45.75" customHeight="1" thickBot="1">
       <c r="A145" s="5" t="inlineStr">
         <is>
-          <t>Teodoro Pérez Sánchez</t>
+          <t>Victoriana García Conejero</t>
         </is>
       </c>
       <c r="B145" s="6" t="n">
-        <v>46527</v>
+        <v>11692</v>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
@@ -2690,80 +2696,24 @@
       </c>
     </row>
     <row r="146" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A146" s="5" t="inlineStr">
-        <is>
-          <t>Valentina Guerra Monroy</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="n">
-        <v>11505</v>
-      </c>
-      <c r="C146" s="7" t="inlineStr">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Virgilia Aguilar Aguilar</t>
+        </is>
+      </c>
+      <c r="B146" s="8" t="n">
+        <v>46353</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>Rosby</t>
         </is>
       </c>
     </row>
-    <row r="147" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A147" s="5" t="inlineStr">
-        <is>
-          <t>Vicenta Fernández Casas</t>
-        </is>
-      </c>
-      <c r="B147" s="6" t="n">
-        <v>13001</v>
-      </c>
-      <c r="C147" s="7" t="inlineStr">
-        <is>
-          <t>Carmen Ballesteros</t>
-        </is>
-      </c>
-    </row>
-    <row r="148" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A148" s="5" t="inlineStr">
-        <is>
-          <t>Victoria Rubio Vivas</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="n">
-        <v>13253</v>
-      </c>
-      <c r="C148" s="7" t="inlineStr">
-        <is>
-          <t>JA Peromingo</t>
-        </is>
-      </c>
-    </row>
-    <row r="149" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A149" s="5" t="inlineStr">
-        <is>
-          <t>Victoriana García Conejero</t>
-        </is>
-      </c>
-      <c r="B149" s="6" t="n">
-        <v>11692</v>
-      </c>
-      <c r="C149" s="7" t="inlineStr">
-        <is>
-          <t>Jose A. Fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="150" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A150" s="5" t="inlineStr">
-        <is>
-          <t>Virgilia Aguilar Aguilar</t>
-        </is>
-      </c>
-      <c r="B150" s="6" t="n">
-        <v>46353</v>
-      </c>
-      <c r="C150" s="7" t="inlineStr">
-        <is>
-          <t>Rosby</t>
-        </is>
-      </c>
-    </row>
+    <row r="147" ht="45.75" customHeight="1"/>
+    <row r="148" ht="30.75" customHeight="1"/>
+    <row r="149" ht="45.75" customHeight="1"/>
+    <row r="150" ht="45.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
